--- a/front/設計書/画面図_一覧表示.xlsx
+++ b/front/設計書/画面図_一覧表示.xlsx
@@ -1,41 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chiba194\Desktop\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\workspace_2023\ict2git\candd2023\front\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8E1712-0071-48C4-9FB4-6EDA26565C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66087F96-6A9B-473E-9196-6895A6DD616C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0F8B2B40-BFA2-4A83-910A-D820DA629772}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0F8B2B40-BFA2-4A83-910A-D820DA629772}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="3">
@@ -108,10 +98,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>labelTable</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>出欠一覧の見出し</t>
     <rPh sb="0" eb="4">
       <t>シュッケツイチラン</t>
@@ -143,37 +129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>データ取得APIの戻り値が正常の場合、画面一覧表示処理を呼び出す。</t>
-    <rPh sb="3" eb="5">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>ガメンイチラン</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>ヒョウジショリ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>処理名</t>
     <rPh sb="0" eb="3">
       <t>ショリメイ</t>
@@ -181,22 +136,204 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面表示を契機にデータ取得APIを呼び出す。</t>
+    <t>②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attend_table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠一覧表</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠一覧表</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集アイコン</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>table_label</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当行の社員の編集を行うボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面表示を契機に出欠情報一覧取得APIを呼び出す。</t>
     <rPh sb="0" eb="4">
       <t>ガメンヒョウジ</t>
     </rPh>
     <rPh sb="5" eb="7">
       <t>ケイキ</t>
     </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="8" eb="10">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
       <t>シュトク</t>
     </rPh>
-    <rPh sb="17" eb="18">
+    <rPh sb="20" eb="21">
       <t>ヨ</t>
     </rPh>
-    <rPh sb="19" eb="20">
+    <rPh sb="22" eb="23">
       <t>ダ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠情報一覧取得APIの戻り値が正常の場合、画面一覧表示処理を呼び出す。</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="26">
+      <t>ガメンイチラン</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>ヒョウジショリ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社員名</t>
+    <rPh sb="0" eb="3">
+      <t>シャインメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出欠</t>
+    <rPh sb="0" eb="2">
+      <t>シュッケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attendance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各月の出欠</t>
+    <rPh sb="0" eb="2">
+      <t>カクツキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュッケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編集アイコン押下でデータ更新画面（ダイアログ）を表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -444,9 +581,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -484,6 +618,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,50 +703,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>181105</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8367DEE3-63DD-B9EB-C662-A00BEDFCA74C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="774700" y="1746250"/>
-          <a:ext cx="8515350" cy="1178055"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -742,6 +835,361 @@
             </a:rPr>
             <a:t>①</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>153670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>197661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D241CB-033A-14A5-E231-E2B3748506CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="782320" y="1753870"/>
+          <a:ext cx="8559800" cy="1186991"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>92710</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5542AF8-50F8-4B6B-9560-6C3B21609067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="737870" y="1623060"/>
+          <a:ext cx="327660" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>220980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>62230</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B2821F-2221-4A07-9ADD-694B9F9D1496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9022080" y="1821180"/>
+          <a:ext cx="548640" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>52070</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92D48726-600A-4B30-B11E-ECB2CA8B973A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="882650" y="1813560"/>
+          <a:ext cx="565150" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>227330</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>54610</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B86B3089-7DF2-44B1-A6EB-2D2ABDD54B28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1728470" y="1813560"/>
+          <a:ext cx="565150" cy="298450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1051,15 +1499,15 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.08203125" customWidth="1"/>
-    <col min="6" max="17" width="9.75" customWidth="1"/>
+    <col min="1" max="1" width="2.09765625" customWidth="1"/>
+    <col min="6" max="17" width="9.69921875" customWidth="1"/>
     <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1078,11 +1526,13 @@
       <c r="N2" s="5"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -1096,282 +1546,90 @@
       <c r="N3" s="3"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="18"/>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="17"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="10"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O7" s="9"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="10"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="10"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="O19" s="9"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.45">
       <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="11"/>
+      <c r="O20" s="9"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B21" s="10"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -1386,64 +1644,64 @@
       <c r="N21" s="3"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="16" t="s">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B22" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="14" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="19"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B23" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="16" t="s">
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="19" t="s">
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="20"/>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="12" t="s">
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="19"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B24" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="13" t="s">
-        <v>11</v>
+      <c r="F24" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
       <c r="I24" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -1452,15 +1710,23 @@
       <c r="N24" s="5"/>
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="13"/>
+      <c r="F25" s="22" t="s">
+        <v>17</v>
+      </c>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="5"/>
+      <c r="I25" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -1468,15 +1734,23 @@
       <c r="N25" s="5"/>
       <c r="O25" s="6"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="13"/>
+      <c r="F26" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -1484,15 +1758,23 @@
       <c r="N26" s="5"/>
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="5"/>
+      <c r="I27" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -1500,15 +1782,23 @@
       <c r="N27" s="5"/>
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B28" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="5"/>
+      <c r="I28" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -1516,12 +1806,12 @@
       <c r="N28" s="5"/>
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="5"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="13"/>
+      <c r="F29" s="12"/>
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
       <c r="I29" s="5"/>
@@ -1532,12 +1822,12 @@
       <c r="N29" s="5"/>
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
       <c r="D30" s="5"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="13"/>
+      <c r="F30" s="12"/>
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
       <c r="I30" s="5"/>
@@ -1548,12 +1838,12 @@
       <c r="N30" s="5"/>
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="5"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="13"/>
+      <c r="F31" s="12"/>
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
       <c r="I31" s="5"/>
@@ -1564,12 +1854,12 @@
       <c r="N31" s="5"/>
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="5"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="12"/>
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
       <c r="I32" s="5"/>
@@ -1580,12 +1870,12 @@
       <c r="N32" s="5"/>
       <c r="O32" s="6"/>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="5"/>
       <c r="E33" s="6"/>
-      <c r="F33" s="13"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
       <c r="I33" s="5"/>
@@ -1596,12 +1886,12 @@
       <c r="N33" s="5"/>
       <c r="O33" s="6"/>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="5"/>
       <c r="E34" s="6"/>
-      <c r="F34" s="13"/>
+      <c r="F34" s="12"/>
       <c r="G34" s="5"/>
       <c r="H34" s="6"/>
       <c r="I34" s="5"/>
@@ -1612,57 +1902,57 @@
       <c r="N34" s="5"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="16" t="s">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="17"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B36" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="18"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="16" t="s">
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="17"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B37" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="18"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
       <c r="F37" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -1674,13 +1964,13 @@
       <c r="N37" s="1"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="22"/>
-      <c r="C38" s="11"/>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B38" s="21"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="3"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="11" t="s">
-        <v>16</v>
+      <c r="F38" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -1692,12 +1982,18 @@
       <c r="N38" s="3"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B39" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="D39" s="5"/>
       <c r="E39" s="6"/>
-      <c r="F39" s="13"/>
+      <c r="F39" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
@@ -1708,12 +2004,12 @@
       <c r="N39" s="5"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="5"/>
       <c r="E40" s="6"/>
-      <c r="F40" s="13"/>
+      <c r="F40" s="12"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
@@ -1724,12 +2020,12 @@
       <c r="N40" s="5"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="5"/>
       <c r="E41" s="6"/>
-      <c r="F41" s="13"/>
+      <c r="F41" s="12"/>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
@@ -1740,12 +2036,12 @@
       <c r="N41" s="5"/>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="5"/>
       <c r="E42" s="6"/>
-      <c r="F42" s="13"/>
+      <c r="F42" s="12"/>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
@@ -1756,12 +2052,12 @@
       <c r="N42" s="5"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="5"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="13"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
@@ -1772,12 +2068,12 @@
       <c r="N43" s="5"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B44" s="11"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="5"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="13"/>
+      <c r="F44" s="12"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
@@ -1788,12 +2084,12 @@
       <c r="N44" s="5"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B45" s="11"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="13"/>
+      <c r="F45" s="12"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
@@ -1804,12 +2100,12 @@
       <c r="N45" s="5"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B46" s="11"/>
+      <c r="C46" s="12"/>
       <c r="D46" s="5"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="13"/>
+      <c r="F46" s="12"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
@@ -1820,12 +2116,12 @@
       <c r="N46" s="5"/>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B47" s="11"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="5"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="13"/>
+      <c r="F47" s="12"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
@@ -1836,12 +2132,12 @@
       <c r="N47" s="5"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.45">
+      <c r="B48" s="11"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="13"/>
+      <c r="F48" s="12"/>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
